--- a/static/db/empresas.xlsx
+++ b/static/db/empresas.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="8_{81D53D89-26E0-4BF0-B566-8E657795DAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6A5550C-5330-1947-B770-581A4FE0AE2C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{43F39C69-40CA-452D-B04F-770CFDAA7D50}"/>
+    <workbookView xWindow="19780" yWindow="5880" windowWidth="19420" windowHeight="10420" xr2:uid="{43F39C69-40CA-452D-B04F-770CFDAA7D50}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
